--- a/test/files/viffer/2.xlsx
+++ b/test/files/viffer/2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -7087,7 +7087,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1223">
+  <cellStyleXfs count="1227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7953,6 +7953,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -8723,7 +8727,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1223">
+  <cellStyles count="1227">
     <cellStyle name="20% - Accent6" xfId="860" builtinId="50"/>
     <cellStyle name="Excel Built-in Normal" xfId="228"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -9335,6 +9339,8 @@
     <cellStyle name="Followed Hyperlink" xfId="1218" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1220" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1226" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -9944,6 +9950,8 @@
     <cellStyle name="Hyperlink" xfId="1217" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1219" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1225" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="37"/>
     <cellStyle name="Normal 5" xfId="231"/>
@@ -22963,11 +22971,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H361"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D245" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D282" sqref="D282"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
@@ -22991,7 +22999,7 @@
       <c r="C1" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="124" t="s">
+      <c r="D1" s="130" t="s">
         <v>934</v>
       </c>
       <c r="F1" s="124" t="s">
@@ -33732,11 +33740,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F36" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F77" sqref="F77"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
